--- a/local/public/uploads/consignments (7).xlsx
+++ b/local/public/uploads/consignments (7).xlsx
@@ -1,26 +1,26 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="24430"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="25427"/>
   <workbookPr codeName="ThisWorkbook"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Orange-HW\Downloads\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{80C9BB65-8606-4DA8-A7B2-A7890AA81195}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{47893BCB-1AB7-46AC-9738-BBB2AE6481BB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="375" yWindow="840" windowWidth="21330" windowHeight="13320" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="191029"/>
+  <calcPr calcId="181029"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="30">
   <si>
     <t>Consignment No. (หมายเลขพัสดุ)</t>
   </si>
@@ -79,19 +79,37 @@
     <t>Service Code (รหัสบริการ)</t>
   </si>
   <si>
-    <t>P100002</t>
-  </si>
-  <si>
-    <t>นันตพร โชดก</t>
-  </si>
-  <si>
-    <t>15/4 หมู่ 3, ต. , อ., จ.จันทบุรี</t>
-  </si>
-  <si>
-    <t>Tel. 085-6983580</t>
-  </si>
-  <si>
-    <t>bbbbbbbbbbb22222</t>
+    <t>P100007</t>
+  </si>
+  <si>
+    <t>น.ส.พิมพ์วลัญช์ นามจันดา</t>
+  </si>
+  <si>
+    <t>(ตย.)2102/1 อาคารไอยเรศวร 4 ซ.ลาดพร้าว84 สู่ความสำเร็จ , ต.แขวงวังทองหลาง , อ.เขตวังทองหลาง, จ.กรุงเทพมหานคร, ต. , อ., จ.กรุงเทพมหานคร</t>
+  </si>
+  <si>
+    <t>020263555</t>
+  </si>
+  <si>
+    <t>P100008</t>
+  </si>
+  <si>
+    <t>จันทร์</t>
+  </si>
+  <si>
+    <t>78, ต. , อ.เขตป้อมปราบศัตรูพ่าย, จ.สมุทรปราการ</t>
+  </si>
+  <si>
+    <t>0837171442</t>
+  </si>
+  <si>
+    <t>020-263-5555</t>
+  </si>
+  <si>
+    <t>qasd1123123213</t>
+  </si>
+  <si>
+    <t>axczxc231321312</t>
   </si>
 </sst>
 </file>
@@ -136,7 +154,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
-    <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="ปกติ" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium9"/>
@@ -438,19 +456,19 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:S2"/>
+  <dimension ref="A1:S3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A6" sqref="A6"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="R18" sqref="R18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="38" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="37" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="31" bestFit="1" customWidth="1"/>
     <col min="4" max="5" width="34" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="38" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="159" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="37" bestFit="1" customWidth="1"/>
     <col min="8" max="8" width="33" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="38" bestFit="1" customWidth="1"/>
@@ -466,7 +484,7 @@
     <col min="19" max="19" width="32" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -525,9 +543,15 @@
         <v>18</v>
       </c>
     </row>
-    <row r="2" spans="1:19" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:19" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>23</v>
+        <v>28</v>
+      </c>
+      <c r="B2">
+        <v>12312</v>
+      </c>
+      <c r="C2">
+        <v>1213</v>
       </c>
       <c r="D2" t="s">
         <v>19</v>
@@ -539,10 +563,45 @@
         <v>21</v>
       </c>
       <c r="G2">
-        <v>22210</v>
+        <v>10560</v>
       </c>
       <c r="H2" t="s">
         <v>22</v>
+      </c>
+      <c r="I2" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="3" spans="1:19" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B3">
+        <v>123213</v>
+      </c>
+      <c r="C3">
+        <v>123123123</v>
+      </c>
+      <c r="D3" t="s">
+        <v>23</v>
+      </c>
+      <c r="E3" t="s">
+        <v>24</v>
+      </c>
+      <c r="F3" t="s">
+        <v>25</v>
+      </c>
+      <c r="G3">
+        <v>10540</v>
+      </c>
+      <c r="H3" t="s">
+        <v>26</v>
+      </c>
+      <c r="I3" t="s">
+        <v>24</v>
+      </c>
+      <c r="J3" t="s">
+        <v>27</v>
       </c>
     </row>
   </sheetData>
